--- a/PINOUTS.xlsx
+++ b/PINOUTS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="485">
   <si>
     <t xml:space="preserve">PB9</t>
   </si>
@@ -1411,18 +1411,42 @@
     <t xml:space="preserve">Standard module</t>
   </si>
   <si>
+    <t xml:space="preserve">MCU α1 pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232-2 α1 pin</t>
+  </si>
+  <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
     <t xml:space="preserve">USART2/TX</t>
   </si>
   <si>
+    <t xml:space="preserve">UART_A_TTL_TX</t>
+  </si>
+  <si>
     <t xml:space="preserve">USART2/RX</t>
   </si>
   <si>
+    <t xml:space="preserve">UART_A_TTL_RX</t>
+  </si>
+  <si>
     <t xml:space="preserve">GPIO</t>
   </si>
   <si>
+    <t xml:space="preserve">UART_A_FORCEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART_B_FORCEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART_B_TTL_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART_B_TTL_RX</t>
+  </si>
+  <si>
     <t xml:space="preserve">H3</t>
   </si>
   <si>
@@ -1448,6 +1472,12 @@
   </si>
   <si>
     <t xml:space="preserve">UART4/RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER CONTROL MCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWR UART-UPL/I2C-NORM</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1536,6 +1566,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2063,20 +2100,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2107,11 +2132,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2135,7 +2164,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2155,6 +2184,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2172,15 +2205,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2262,8 +2299,8 @@
   </sheetPr>
   <dimension ref="A1:AR119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W30" activeCellId="0" sqref="W30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W30" activeCellId="1" sqref="D22:D26 W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.1640625" defaultRowHeight="28.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4299,8 +4336,8 @@
   </sheetPr>
   <dimension ref="A1:XFD81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="1" sqref="D22:D26 C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.796875" defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10123,10 +10160,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10139,1380 +10176,1551 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="6" style="70" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="74" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72" t="s">
+    <row r="1" s="71" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="71" t="s">
         <v>461</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-    </row>
-    <row r="2" s="78" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
+      <c r="D1" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" s="75" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" s="80" t="n">
+      <c r="A3" s="76" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="79" t="s">
-        <v>463</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
+      <c r="C3" s="76" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80" t="n">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
+      <c r="C4" s="76" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80" t="n">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
+      <c r="D5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80" t="n">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
+      <c r="D6" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80" t="n">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
+      <c r="D7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80" t="n">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77" t="n">
         <v>13</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
+      <c r="D8" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80" t="n">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77" t="n">
         <v>14</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
+      <c r="D9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="76"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80" t="n">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77" t="n">
         <v>15</v>
       </c>
-      <c r="C10" s="79" t="s">
-        <v>465</v>
-      </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
+      <c r="C10" s="76" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80" t="n">
+      <c r="A11" s="76"/>
+      <c r="B11" s="77" t="n">
         <v>16</v>
       </c>
-      <c r="C11" s="79" t="s">
-        <v>465</v>
-      </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
+      <c r="C11" s="76" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80" t="n">
+      <c r="A12" s="76"/>
+      <c r="B12" s="77" t="n">
         <v>17</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
+      <c r="D12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80" t="n">
+      <c r="A13" s="76"/>
+      <c r="B13" s="77" t="n">
         <v>18</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
+      <c r="D13" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80" t="n">
+      <c r="A14" s="76"/>
+      <c r="B14" s="77" t="n">
         <v>19</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-    </row>
-    <row r="15" s="88" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
+      <c r="D14" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+    </row>
+    <row r="15" s="86" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="76" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" s="77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="B16" s="80" t="n">
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="76"/>
+      <c r="B17" s="77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="76"/>
+      <c r="B18" s="77" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="76"/>
+      <c r="B21" s="77" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="76"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="76"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77" t="n">
+        <v>18</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77" t="n">
+        <v>19</v>
+      </c>
+      <c r="C27" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+    </row>
+    <row r="28" s="91" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="76" t="s">
+        <v>477</v>
+      </c>
+      <c r="B29" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="79" t="s">
-        <v>467</v>
-      </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80" t="n">
+      <c r="C29" s="76" t="s">
+        <v>478</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C30" s="76" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="76" t="s">
         <v>468</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80" t="n">
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="76"/>
+      <c r="B31" s="77" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C31" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80" t="n">
+      <c r="D31" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="76"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="76"/>
+      <c r="B32" s="77" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C32" s="79" t="s">
         <v>317</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-    </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80" t="n">
+      <c r="D32" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="76"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="76"/>
+      <c r="B33" s="77" t="n">
         <v>12</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C33" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80" t="n">
+      <c r="D33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="76"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="76"/>
+      <c r="B34" s="77" t="n">
         <v>13</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C34" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80" t="n">
+      <c r="D34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="76"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77" t="n">
         <v>14</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C35" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80" t="n">
+      <c r="D35" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="76"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="76"/>
+      <c r="B36" s="77" t="n">
         <v>15</v>
       </c>
-      <c r="C23" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-    </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80" t="n">
+      <c r="C36" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>470</v>
+      </c>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="76"/>
+      <c r="B37" s="77" t="n">
         <v>16</v>
       </c>
-      <c r="C24" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80" t="n">
+      <c r="C37" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="76"/>
+      <c r="B38" s="77" t="n">
         <v>17</v>
       </c>
-      <c r="C25" s="79" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80" t="n">
+      <c r="C38" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="76"/>
+      <c r="B39" s="77" t="n">
         <v>18</v>
       </c>
-      <c r="C26" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80" t="n">
+      <c r="C39" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="76"/>
+      <c r="B40" s="77" t="n">
         <v>19</v>
       </c>
-      <c r="C27" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-    </row>
-    <row r="28" s="93" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-    </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="79" t="s">
-        <v>469</v>
-      </c>
-      <c r="B29" s="80" t="n">
+      <c r="C40" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+    </row>
+    <row r="41" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="93"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="76" t="s">
+        <v>480</v>
+      </c>
+      <c r="B42" s="77" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C42" s="76" t="s">
+        <v>481</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="76"/>
+      <c r="B43" s="77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>482</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="76"/>
+      <c r="B44" s="77" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="76"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+    </row>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="76"/>
+      <c r="B45" s="77" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="76"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="78"/>
+      <c r="T45" s="78"/>
+    </row>
+    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="76"/>
+      <c r="B46" s="77" t="n">
+        <v>12</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="76"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="78"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="76"/>
+      <c r="B47" s="77" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="76"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+    </row>
+    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77" t="n">
+        <v>14</v>
+      </c>
+      <c r="C48" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="76"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="76"/>
+      <c r="B49" s="77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="76" t="s">
         <v>470</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80" t="n">
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+    </row>
+    <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="76"/>
+      <c r="B50" s="77" t="n">
+        <v>16</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="76" t="s">
+        <v>471</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+    </row>
+    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="76"/>
+      <c r="B51" s="77" t="n">
+        <v>17</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="78"/>
+      <c r="T51" s="78"/>
+    </row>
+    <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="76"/>
+      <c r="B52" s="77" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+    </row>
+    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="76"/>
+      <c r="B53" s="77" t="n">
+        <v>19</v>
+      </c>
+      <c r="C53" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+    </row>
+    <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="98" t="s">
+        <v>483</v>
+      </c>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+    </row>
+    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="79" t="s">
-        <v>471</v>
-      </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80" t="n">
-        <v>8</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>317</v>
-      </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80" t="n">
-        <v>12</v>
-      </c>
-      <c r="C33" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
-    </row>
-    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80" t="n">
-        <v>13</v>
-      </c>
-      <c r="C34" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81"/>
-    </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="79"/>
-      <c r="B35" s="80" t="n">
-        <v>14</v>
-      </c>
-      <c r="C35" s="82" t="s">
-        <v>355</v>
-      </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-    </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80" t="n">
-        <v>15</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-    </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80" t="n">
-        <v>16</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-    </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="79"/>
-      <c r="B38" s="80" t="n">
-        <v>17</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
-    </row>
-    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="79"/>
-      <c r="B39" s="80" t="n">
-        <v>18</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-    </row>
-    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="79"/>
-      <c r="B40" s="80" t="n">
-        <v>19</v>
-      </c>
-      <c r="C40" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
-    </row>
-    <row r="41" s="97" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="94"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-    </row>
-    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="79" t="s">
-        <v>472</v>
-      </c>
-      <c r="B42" s="80" t="n">
-        <v>6</v>
-      </c>
-      <c r="C42" s="79" t="s">
-        <v>473</v>
-      </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-    </row>
-    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80" t="n">
-        <v>7</v>
-      </c>
-      <c r="C43" s="79" t="s">
-        <v>474</v>
-      </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
-    </row>
-    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80" t="n">
-        <v>8</v>
-      </c>
-      <c r="C44" s="82" t="s">
-        <v>310</v>
-      </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-    </row>
-    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="79"/>
-      <c r="B45" s="80" t="n">
-        <v>9</v>
-      </c>
-      <c r="C45" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="D45" s="98"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-    </row>
-    <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="79"/>
-      <c r="B46" s="80" t="n">
-        <v>12</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-    </row>
-    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="79"/>
-      <c r="B47" s="80" t="n">
-        <v>13</v>
-      </c>
-      <c r="C47" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-    </row>
-    <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="79"/>
-      <c r="B48" s="80" t="n">
-        <v>14</v>
-      </c>
-      <c r="C48" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-    </row>
-    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="79"/>
-      <c r="B49" s="80" t="n">
-        <v>15</v>
-      </c>
-      <c r="C49" s="89" t="s">
-        <v>351</v>
-      </c>
-      <c r="D49" s="82"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-    </row>
-    <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="79"/>
-      <c r="B50" s="80" t="n">
-        <v>16</v>
-      </c>
-      <c r="C50" s="89" t="s">
-        <v>356</v>
-      </c>
-      <c r="D50" s="82"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-    </row>
-    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="79"/>
-      <c r="B51" s="80" t="n">
-        <v>17</v>
-      </c>
-      <c r="C51" s="89" t="s">
-        <v>363</v>
-      </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-    </row>
-    <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="79"/>
-      <c r="B52" s="80" t="n">
-        <v>18</v>
-      </c>
-      <c r="C52" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="100"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-    </row>
-    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="79"/>
-      <c r="B53" s="80" t="n">
-        <v>19</v>
-      </c>
-      <c r="C53" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C57" s="100" t="s">
+        <v>484</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="100"/>
+      <c r="D58" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A29:A40"/>
     <mergeCell ref="A42:A53"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/PINOUTS.xlsx
+++ b/PINOUTS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="512">
   <si>
     <t xml:space="preserve">PB9</t>
   </si>
@@ -1420,9 +1420,39 @@
     <t xml:space="preserve">IMU α1</t>
   </si>
   <si>
+    <t xml:space="preserve">DIRECT I2C α1</t>
+  </si>
+  <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
+    <t xml:space="preserve">RS232_B_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_B_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_A_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C_SDA_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232_A_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C_SCL_OUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">USART2/TX</t>
   </si>
   <si>
@@ -1465,6 +1495,18 @@
     <t xml:space="preserve">H3</t>
   </si>
   <si>
+    <t xml:space="preserve">S5_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">USART3/TX</t>
   </si>
   <si>
@@ -1474,6 +1516,18 @@
     <t xml:space="preserve">H4</t>
   </si>
   <si>
+    <t xml:space="preserve">S1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">USART1/TX</t>
   </si>
   <si>
@@ -1481,6 +1535,18 @@
   </si>
   <si>
     <t xml:space="preserve">H5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4_1</t>
   </si>
   <si>
     <t xml:space="preserve">UART4/TX</t>
@@ -1830,7 +1896,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="110">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2123,7 +2189,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2144,10 +2226,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2231,7 +2309,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2314,7 +2416,7 @@
   </sheetPr>
   <dimension ref="A1:AR119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W30" activeCellId="0" sqref="W30"/>
     </sheetView>
   </sheetViews>
@@ -4351,7 +4453,7 @@
   </sheetPr>
   <dimension ref="A1:XFD81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
@@ -10175,10 +10277,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G64" activeCellId="0" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10187,9 +10289,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="7.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="26.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="45.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="42.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="7" style="67" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="21.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="8" style="67" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="68" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10204,6 +10307,9 @@
       </c>
       <c r="F1" s="68" t="s">
         <v>464</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="2" s="72" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10228,1550 +10334,2083 @@
       <c r="S2" s="71"/>
       <c r="T2" s="71"/>
     </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="73" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B3" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="74" t="s">
         <v>467</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+    </row>
+    <row r="4" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="73"/>
+      <c r="B4" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>468</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" s="73" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="73" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+    </row>
+    <row r="5" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="73"/>
+      <c r="B5" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="74" t="s">
         <v>471</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-    </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="75"/>
+      <c r="G5" s="74" t="s">
         <v>472</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-    </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+    </row>
+    <row r="6" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="73"/>
-      <c r="B6" s="74" t="n">
-        <v>9</v>
+      <c r="B6" s="77" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="78" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="73"/>
-      <c r="B7" s="74" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>154</v>
+      <c r="B7" s="78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>476</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
+        <v>86</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="73"/>
-      <c r="B8" s="74" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>207</v>
+      <c r="B8" s="78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>479</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
+        <v>88</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="73"/>
-      <c r="B9" s="74" t="n">
-        <v>14</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>220</v>
+      <c r="B9" s="78" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>310</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
+        <v>71</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="73"/>
-      <c r="B10" s="74" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>474</v>
+      <c r="B10" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>318</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>475</v>
-      </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
+        <v>69</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="73"/>
-      <c r="B11" s="74" t="n">
-        <v>16</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>474</v>
+      <c r="B11" s="78" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>154</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
+        <v>90</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="73"/>
-      <c r="B12" s="74" t="n">
-        <v>17</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>359</v>
+      <c r="B12" s="78" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>207</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
+        <v>91</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="73"/>
-      <c r="B13" s="74" t="n">
-        <v>18</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>359</v>
+      <c r="B13" s="78" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>220</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>477</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
+        <v>92</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="73"/>
-      <c r="B14" s="74" t="n">
-        <v>19</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>186</v>
+      <c r="B14" s="78" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>484</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>478</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-    </row>
-    <row r="15" s="86" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
+        <v>95</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="73"/>
+      <c r="B15" s="78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>484</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="73" t="s">
-        <v>479</v>
-      </c>
-      <c r="B16" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>480</v>
+      <c r="A16" s="73"/>
+      <c r="B16" s="78" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>359</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>467</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>468</v>
-      </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
+        <v>78</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="73"/>
-      <c r="B17" s="74" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>481</v>
+      <c r="B17" s="78" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>359</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>470</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>471</v>
-      </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="73"/>
-      <c r="B18" s="74" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>309</v>
+      <c r="B18" s="78" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>186</v>
       </c>
       <c r="D18" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>488</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+    </row>
+    <row r="19" s="89" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+    </row>
+    <row r="20" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="73" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" s="75"/>
+      <c r="E20" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+    </row>
+    <row r="21" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="73"/>
+      <c r="B21" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" s="75"/>
+      <c r="E21" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+    </row>
+    <row r="22" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="73"/>
+      <c r="B22" s="77" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="78" t="s">
+      <c r="C22" s="77" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" s="75"/>
+      <c r="E22" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="75"/>
+      <c r="G22" s="74" t="s">
         <v>472</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="78" t="s">
-        <v>473</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-    </row>
-    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>234</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-    </row>
-    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74" t="n">
-        <v>13</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74" t="n">
-        <v>14</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+    </row>
+    <row r="23" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="73"/>
-      <c r="B23" s="74" t="n">
-        <v>15</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="73" t="s">
+      <c r="B23" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="F23" s="75"/>
+      <c r="G23" s="74" t="s">
         <v>475</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="73"/>
-      <c r="B24" s="74" t="n">
-        <v>16</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>205</v>
+      <c r="B24" s="78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>494</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
+        <v>93</v>
+      </c>
+      <c r="E24" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="73"/>
-      <c r="B25" s="74" t="n">
-        <v>17</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>261</v>
+      <c r="B25" s="78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>495</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
+        <v>94</v>
+      </c>
+      <c r="E25" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="73"/>
-      <c r="B26" s="74" t="n">
-        <v>18</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>245</v>
+      <c r="B26" s="78" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>309</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>477</v>
-      </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="79"/>
+      <c r="F26" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="73"/>
-      <c r="B27" s="74" t="n">
-        <v>19</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>250</v>
+      <c r="B27" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>317</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="81" t="s">
-        <v>478</v>
-      </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-    </row>
-    <row r="28" s="91" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="88"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="79"/>
+      <c r="F27" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="73"/>
+      <c r="B28" s="78" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="79"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="73" t="s">
-        <v>482</v>
-      </c>
-      <c r="B29" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>483</v>
+      <c r="A29" s="73"/>
+      <c r="B29" s="78" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>350</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>467</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>468</v>
-      </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
+        <v>20</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="73"/>
-      <c r="B30" s="74" t="n">
-        <v>7</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>484</v>
+      <c r="B30" s="78" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>355</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="73" t="s">
-        <v>470</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>471</v>
-      </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
+        <v>19</v>
+      </c>
+      <c r="E30" s="79"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="73"/>
-      <c r="B31" s="74" t="n">
-        <v>8</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>309</v>
+      <c r="B31" s="78" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>232</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="78" t="s">
-        <v>472</v>
-      </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
+        <v>40</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" s="75"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="73"/>
-      <c r="B32" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>317</v>
+      <c r="B32" s="78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>205</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="78" t="s">
-        <v>473</v>
-      </c>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
+        <v>85</v>
+      </c>
+      <c r="E32" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="73"/>
-      <c r="B33" s="74" t="n">
-        <v>12</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>234</v>
+      <c r="B33" s="78" t="n">
+        <v>17</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>261</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
+        <v>83</v>
+      </c>
+      <c r="E33" s="79"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="73"/>
-      <c r="B34" s="74" t="n">
-        <v>13</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>350</v>
+      <c r="B34" s="78" t="n">
+        <v>18</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>245</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="73"/>
-      <c r="B35" s="74" t="n">
-        <v>14</v>
-      </c>
-      <c r="C35" s="77" t="s">
-        <v>355</v>
+      <c r="B35" s="78" t="n">
+        <v>19</v>
+      </c>
+      <c r="C35" s="90" t="s">
+        <v>250</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-    </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74" t="n">
-        <v>15</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>488</v>
+      </c>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+    </row>
+    <row r="36" s="94" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="91"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+    </row>
+    <row r="37" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="73" t="s">
+        <v>496</v>
+      </c>
+      <c r="B37" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>497</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+    </row>
+    <row r="38" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="73"/>
+      <c r="B38" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>498</v>
+      </c>
+      <c r="D38" s="75"/>
+      <c r="E38" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+    </row>
+    <row r="39" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="73"/>
+      <c r="B39" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" s="75"/>
+      <c r="E39" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="F39" s="75"/>
+      <c r="G39" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+    </row>
+    <row r="40" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="73"/>
+      <c r="B40" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>500</v>
+      </c>
+      <c r="D40" s="75"/>
+      <c r="E40" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="F40" s="75"/>
+      <c r="G40" s="74" t="s">
         <v>475</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-    </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74" t="n">
-        <v>16</v>
-      </c>
-      <c r="C37" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-    </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="73"/>
-      <c r="B38" s="74" t="n">
-        <v>17</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
-    </row>
-    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74" t="n">
-        <v>18</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="73" t="s">
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="73"/>
+      <c r="B41" s="78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="79" t="s">
         <v>477</v>
       </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="76"/>
-    </row>
-    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74" t="n">
-        <v>19</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="81" t="s">
+      <c r="F41" s="74" t="s">
         <v>478</v>
       </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-    </row>
-    <row r="41" s="96" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="93"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="73" t="s">
-        <v>485</v>
-      </c>
-      <c r="B42" s="74" t="n">
-        <v>6</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>486</v>
+      <c r="A42" s="73"/>
+      <c r="B42" s="78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" s="79" t="s">
+        <v>502</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>467</v>
-      </c>
-      <c r="F42" s="75" t="s">
-        <v>468</v>
-      </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
+        <v>36</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="73"/>
-      <c r="B43" s="74" t="n">
-        <v>7</v>
-      </c>
-      <c r="C43" s="73" t="s">
-        <v>487</v>
+      <c r="B43" s="78" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" s="81" t="s">
+        <v>309</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>470</v>
-      </c>
-      <c r="F43" s="75" t="s">
-        <v>471</v>
-      </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="76"/>
+        <v>4</v>
+      </c>
+      <c r="E43" s="79"/>
+      <c r="F43" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="G43" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="73"/>
-      <c r="B44" s="74" t="n">
-        <v>8</v>
-      </c>
-      <c r="C44" s="77" t="s">
-        <v>310</v>
+      <c r="B44" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" s="81" t="s">
+        <v>317</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="78" t="s">
-        <v>472</v>
-      </c>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
+        <v>3</v>
+      </c>
+      <c r="E44" s="79"/>
+      <c r="F44" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="G44" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="73"/>
-      <c r="B45" s="74" t="n">
-        <v>9</v>
-      </c>
-      <c r="C45" s="77" t="s">
-        <v>318</v>
+      <c r="B45" s="78" t="n">
+        <v>12</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>234</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="78" t="s">
-        <v>473</v>
-      </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
+        <v>21</v>
+      </c>
+      <c r="E45" s="79"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="73"/>
-      <c r="B46" s="74" t="n">
-        <v>12</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>154</v>
+      <c r="B46" s="78" t="n">
+        <v>13</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>350</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
+        <v>20</v>
+      </c>
+      <c r="E46" s="79"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="73"/>
-      <c r="B47" s="74" t="n">
-        <v>13</v>
-      </c>
-      <c r="C47" s="77" t="s">
-        <v>207</v>
+      <c r="B47" s="78" t="n">
+        <v>14</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>355</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
+        <v>19</v>
+      </c>
+      <c r="E47" s="79"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="73"/>
-      <c r="B48" s="74" t="n">
-        <v>14</v>
-      </c>
-      <c r="C48" s="77" t="s">
-        <v>220</v>
+      <c r="B48" s="78" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" s="95" t="s">
+        <v>237</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
+        <v>35</v>
+      </c>
+      <c r="E48" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="F48" s="75"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="80"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="80"/>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="73"/>
-      <c r="B49" s="74" t="n">
-        <v>15</v>
-      </c>
-      <c r="C49" s="87" t="s">
-        <v>351</v>
+      <c r="B49" s="78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>231</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>475</v>
-      </c>
-      <c r="F49" s="79"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
+        <v>37</v>
+      </c>
+      <c r="E49" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="73"/>
-      <c r="B50" s="74" t="n">
-        <v>16</v>
-      </c>
-      <c r="C50" s="87" t="s">
-        <v>356</v>
+      <c r="B50" s="78" t="n">
+        <v>17</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>243</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>476</v>
-      </c>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="76"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
+        <v>39</v>
+      </c>
+      <c r="E50" s="79"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="73"/>
-      <c r="B51" s="74" t="n">
-        <v>17</v>
-      </c>
-      <c r="C51" s="87" t="s">
-        <v>363</v>
-      </c>
-      <c r="D51" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="76"/>
-      <c r="S51" s="76"/>
-      <c r="T51" s="76"/>
+      <c r="B51" s="78" t="n">
+        <v>18</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="73"/>
-      <c r="B52" s="74" t="n">
+      <c r="B52" s="78" t="n">
+        <v>19</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="84" t="s">
+        <v>488</v>
+      </c>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="80"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+    </row>
+    <row r="53" s="99" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="96"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+    </row>
+    <row r="54" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="B54" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>504</v>
+      </c>
+      <c r="D54" s="75"/>
+      <c r="E54" s="74" t="s">
+        <v>467</v>
+      </c>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+    </row>
+    <row r="55" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="73"/>
+      <c r="B55" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="D55" s="75"/>
+      <c r="E55" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+    </row>
+    <row r="56" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="73"/>
+      <c r="B56" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="77" t="s">
+        <v>506</v>
+      </c>
+      <c r="D56" s="75"/>
+      <c r="E56" s="74" t="s">
+        <v>471</v>
+      </c>
+      <c r="F56" s="75"/>
+      <c r="G56" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="75"/>
+    </row>
+    <row r="57" s="76" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="73"/>
+      <c r="B57" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" s="77" t="s">
+        <v>507</v>
+      </c>
+      <c r="D57" s="75"/>
+      <c r="E57" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="F57" s="75"/>
+      <c r="G57" s="74" t="s">
+        <v>475</v>
+      </c>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="75"/>
+    </row>
+    <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="73"/>
+      <c r="B58" s="78" t="n">
+        <v>6</v>
+      </c>
+      <c r="C58" s="79" t="s">
+        <v>508</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="F58" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="80"/>
+    </row>
+    <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="73"/>
+      <c r="B59" s="78" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>509</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="F59" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+    </row>
+    <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="73"/>
+      <c r="B60" s="78" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="79"/>
+      <c r="F60" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+    </row>
+    <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="73"/>
+      <c r="B61" s="78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" s="81" t="s">
+        <v>318</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="79"/>
+      <c r="F61" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="G61" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="80"/>
+    </row>
+    <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="73"/>
+      <c r="B62" s="78" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="79"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="80"/>
+      <c r="Q62" s="80"/>
+      <c r="R62" s="80"/>
+      <c r="S62" s="80"/>
+      <c r="T62" s="80"/>
+    </row>
+    <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="73"/>
+      <c r="B63" s="78" t="n">
+        <v>13</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="79"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="80"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="80"/>
+    </row>
+    <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="73"/>
+      <c r="B64" s="78" t="n">
+        <v>14</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="79"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="80"/>
+      <c r="R64" s="80"/>
+      <c r="S64" s="80"/>
+      <c r="T64" s="80"/>
+    </row>
+    <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="73"/>
+      <c r="B65" s="78" t="n">
+        <v>15</v>
+      </c>
+      <c r="C65" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="79" t="s">
+        <v>485</v>
+      </c>
+      <c r="F65" s="75"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
+    </row>
+    <row r="66" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="73"/>
+      <c r="B66" s="78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C66" s="90" t="s">
+        <v>356</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+    </row>
+    <row r="67" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="73"/>
+      <c r="B67" s="78" t="n">
+        <v>17</v>
+      </c>
+      <c r="C67" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="79"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="80"/>
+      <c r="S67" s="80"/>
+      <c r="T67" s="80"/>
+    </row>
+    <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="73"/>
+      <c r="B68" s="78" t="n">
         <v>18</v>
       </c>
-      <c r="C52" s="98" t="s">
+      <c r="C68" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="97" t="s">
+      <c r="D68" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="73" t="s">
-        <v>477</v>
-      </c>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-    </row>
-    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="73"/>
-      <c r="B53" s="74" t="n">
+      <c r="E68" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="80"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="80"/>
+      <c r="S68" s="80"/>
+      <c r="T68" s="80"/>
+    </row>
+    <row r="69" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="73"/>
+      <c r="B69" s="78" t="n">
         <v>19</v>
       </c>
-      <c r="C53" s="98" t="s">
+      <c r="C69" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="97" t="s">
+      <c r="D69" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="73" t="s">
-        <v>478</v>
-      </c>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="76"/>
-    </row>
-    <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="99" t="s">
+      <c r="E69" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-    </row>
-    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="100" t="s">
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="80"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="80"/>
+      <c r="S69" s="80"/>
+      <c r="T69" s="80"/>
+    </row>
+    <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="102"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="106"/>
+      <c r="R70" s="106"/>
+      <c r="S70" s="106"/>
+      <c r="T70" s="106"/>
+    </row>
+    <row r="71" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="102"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="106"/>
+      <c r="I71" s="106"/>
+      <c r="J71" s="106"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="106"/>
+      <c r="M71" s="106"/>
+      <c r="N71" s="106"/>
+      <c r="O71" s="106"/>
+      <c r="P71" s="106"/>
+      <c r="Q71" s="106"/>
+      <c r="R71" s="106"/>
+      <c r="S71" s="106"/>
+      <c r="T71" s="106"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="80"/>
+    </row>
+    <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="79" t="s">
+        <v>510</v>
+      </c>
+      <c r="B73" s="79"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="79"/>
+    </row>
+    <row r="74" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="107"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="108" t="s">
         <v>290</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D74" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="55" t="s">
-        <v>489</v>
-      </c>
-      <c r="D57" s="38" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="107"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="109" t="s">
+        <v>511</v>
+      </c>
+      <c r="D75" s="100" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="55"/>
-      <c r="D58" s="38" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="107"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="100" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="81" t="s">
+    <row r="77" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="107"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D77" s="100" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A42:A53"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A20:A35"/>
+    <mergeCell ref="A37:A52"/>
+    <mergeCell ref="A54:A69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="C75:C76"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
